--- a/biology/Zoologie/Gallotia_bravoana/Gallotia_bravoana.xlsx
+++ b/biology/Zoologie/Gallotia_bravoana/Gallotia_bravoana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia bravoana est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia bravoana est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de La Gomera aux îles Canaries[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de La Gomera aux îles Canaries.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un reptile présentant une couleur blanche soutenue au niveau de la nuque, de la bouche et de la poitrine, ce qui contraste fortement avec le reste du corps plutôt brun sombre.
 Ce sont des lézards généralement diurnes, qui consomment principalement des végétaux, et qui peuvent atteindre une cinquantaine de centimètres.
@@ -575,9 +591,11 @@
           <t>Taxon Lazare</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite depuis des subfossiles, cette espèce a été découverte vivante en 1999[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite depuis des subfossiles, cette espèce a été découverte vivante en 1999,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Mesures de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La population de cette espèce était estimée à 90 individus en 2004, répartis sur une zone d'un hectare environ, plus un groupe d'une quarantaine d'individus élevés en captivité dans le cadre d'un programme de réintroduction.
 </t>
@@ -637,9 +657,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Telesforo Bravo[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Telesforo Bravo.
 </t>
         </is>
       </c>
@@ -668,9 +690,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia bravoana et Gallotia gomerana sont synonymes[4], selon le principe du premier réviseur[5], le nom Gallotia bravoana doit être utilisé, contrairement à ce qu'envisageaient Martín et Rando en 2006[6]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia bravoana et Gallotia gomerana sont synonymes, selon le principe du premier réviseur, le nom Gallotia bravoana doit être utilisé, contrairement à ce qu'envisageaient Martín et Rando en 2006
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hutterer, 1985 : Neue Funde von Rieseneidechsen (Lacertidae) auf der Insel Gomera. Bonner zoologische Beiträge, vol. 36, no 3/4, p. 365-394 (texte intégral).</t>
         </is>
